--- a/paper/缩写表.xlsx
+++ b/paper/缩写表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_work\master-s-thesis-project\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F6163-4E7F-4F33-9BDB-AB2546263FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D66744-C4AB-4CBE-AB9A-F813AF05C94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="13524" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,81 +25,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>表达式</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>ROC曲线下面积</t>
+  </si>
+  <si>
+    <t>英文缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSRR</t>
+  </si>
+  <si>
+    <t>定量结构-保留关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量结构-活性关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pesticide Property Database</t>
+  </si>
+  <si>
+    <t>农药性质数据库</t>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area under the curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受试者工作特征曲线</t>
+  </si>
+  <si>
+    <t>Receiver Operating Characteristic Curve</t>
+  </si>
+  <si>
+    <t>ROC curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子描述符</t>
+  </si>
+  <si>
+    <t>MDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素贝叶斯</t>
+  </si>
+  <si>
+    <t>NB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>K近邻</t>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-Nearest Neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯度提升树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradient Boosting Tree</t>
+  </si>
+  <si>
+    <t>相关性数据</t>
+  </si>
+  <si>
+    <t>Correlation Statistics</t>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual Information</t>
+  </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元线性回归</t>
+  </si>
+  <si>
+    <t>MLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Linear Regression </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持向量回归</t>
+  </si>
+  <si>
+    <t>Support Vector Regression</t>
+  </si>
+  <si>
+    <t>SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏最小二乘回归</t>
+  </si>
+  <si>
+    <t>PLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partial Least Squares Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯度提升回归</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Absolute Error</t>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均绝对误差</t>
+  </si>
+  <si>
+    <t>RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Retention Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitative structure-activity relationships</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitative structure-retention relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular descriptor </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANOVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis of Variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principal Component Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主成分分析</t>
+  </si>
+  <si>
+    <t>PLS-DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏最小二乘法判别分析</t>
+  </si>
+  <si>
+    <t>Partial Least Squares Discriminant Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TP</t>
-  </si>
-  <si>
-    <t>真阳性的数量</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>真阴性的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FP</t>
-  </si>
-  <si>
-    <t>假阳性的数量</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>假阴性的数量</t>
-  </si>
-  <si>
-    <t>Acc.</t>
-  </si>
-  <si>
-    <t>正确率</t>
-  </si>
-  <si>
-    <t>(TP+TN)/(TP+TN+FP+FN)</t>
-  </si>
-  <si>
-    <t>Sens.</t>
-  </si>
-  <si>
-    <t>灵敏性（真阳性率）</t>
-  </si>
-  <si>
-    <t>TP/(TP+FN)</t>
-  </si>
-  <si>
-    <t>Spec.</t>
-  </si>
-  <si>
-    <t>特异性（真阴性率）</t>
-  </si>
-  <si>
-    <t>TN/(TN+FP)</t>
-  </si>
-  <si>
-    <t>ROC</t>
-  </si>
-  <si>
-    <t>ROC曲线</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>ROC曲线下面积</t>
-  </si>
-  <si>
-    <t>简写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True Positive</t>
+  </si>
+  <si>
+    <t>True Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False Negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真阳性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真阴性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假阴性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假阳性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,37 +659,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,32 +699,32 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,15 +735,15 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -515,10 +751,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -526,24 +762,222 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
